--- a/service/report/invoice_fiz.xlsx
+++ b/service/report/invoice_fiz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">Генеральный директор</t>
   </si>
   <si>
-    <t xml:space="preserve">Махлонов Д.В.</t>
+    <t xml:space="preserve">Туревич М.В.</t>
   </si>
   <si>
     <t xml:space="preserve">должность</t>
@@ -569,26 +569,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.26114649681529"/>
-    <col collapsed="false" hidden="false" max="33" min="2" style="1" width="3.77707006369427"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="2.51592356687898"/>
-    <col collapsed="false" hidden="false" max="36" min="35" style="1" width="1.26114649681529"/>
-    <col collapsed="false" hidden="false" max="38" min="37" style="1" width="2.51592356687898"/>
-    <col collapsed="false" hidden="false" max="40" min="39" style="1" width="1.26114649681529"/>
-    <col collapsed="false" hidden="false" max="42" min="41" style="1" width="2.51592356687898"/>
-    <col collapsed="false" hidden="false" max="44" min="43" style="1" width="1.26114649681529"/>
-    <col collapsed="false" hidden="false" max="49" min="45" style="1" width="3.77707006369427"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="9.88535031847134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="33" min="2" style="1" width="4.85350318471338"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="36" min="35" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="38" min="37" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="42" min="41" style="1" width="2.87898089171974"/>
+    <col collapsed="false" hidden="false" max="44" min="43" style="1" width="1.61783439490446"/>
+    <col collapsed="false" hidden="false" max="49" min="45" style="1" width="4.85350318471338"/>
+    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="12.4012738853503"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="36.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2077,7 +2077,7 @@
       <c r="AP29" s="0"/>
       <c r="AQ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
         <v>33</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="AP32" s="40"/>
       <c r="AQ32" s="40"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="43" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2490,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
